--- a/Plan/AVR_Schedule.xlsx
+++ b/Plan/AVR_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work1\paid course\IEEE\Embedded CUSB\IEEE_CUSB26_Embedded\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944A5D42-DF45-4E70-9A10-42E39AC8FAF2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF51E72-2151-4C61-BD18-8913A803B8B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>S 1</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Basma khaled3</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -472,10 +475,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -493,7 +496,7 @@
     <col min="13" max="13" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -507,8 +510,11 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -522,8 +528,11 @@
       <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -537,8 +546,11 @@
       <c r="E3" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -552,8 +564,11 @@
       <c r="E4" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -567,8 +582,9 @@
       <c r="E5" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -582,8 +598,9 @@
       <c r="E6" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -597,8 +614,9 @@
       <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -612,8 +630,9 @@
       <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -627,8 +646,9 @@
       <c r="E9" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -642,8 +662,9 @@
       <c r="E10" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -657,9 +678,10 @@
       <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
     </row>
   </sheetData>
